--- a/converted_files/837/837I-inst-claim.xlsx
+++ b/converted_files/837/837I-inst-claim.xlsx
@@ -1875,7 +1875,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb576e</t>
+          <t>6901488a7e79911955eafd76</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>685d7cebfc42e4481ffb576e</t>
+          <t>6901488a7e79911955eafd76</t>
         </is>
       </c>
       <c r="B3"/>

--- a/converted_files/837/837I-inst-claim.xlsx
+++ b/converted_files/837/837I-inst-claim.xlsx
@@ -1875,7 +1875,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafd76</t>
+          <t>6918d0577f059d7aab1b4efc</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2578,7 +2578,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>6901488a7e79911955eafd76</t>
+          <t>6918d0577f059d7aab1b4efc</t>
         </is>
       </c>
       <c r="B3"/>
